--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankit/Desktop/LTFS_Hackathon/Analytics Vidhya/final_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Education\MTech\Assignments\IDS\Vehicle-loan-default-prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119E5D42-3EC3-4DD3-9214-B4A7CC14C790}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>ltv</t>
   </si>
@@ -270,12 +271,18 @@
   </si>
   <si>
     <t>New loans taken by the customer in last 6 months before the disbursment</t>
+  </si>
+  <si>
+    <t>Extra description</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -605,205 +612,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -814,7 +888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -823,7 +897,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -832,7 +906,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -841,7 +915,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -850,7 +924,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -859,7 +933,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -870,7 +944,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -879,7 +953,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -888,7 +962,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -897,7 +971,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -906,7 +980,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -915,60 +989,81 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
